--- a/public/templates/template_import_part.xlsx
+++ b/public/templates/template_import_part.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robby\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0DDB1223-605B-44AE-BC29-A9554235C3F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DE3BD47D-62BF-470D-AA54-105C96C35EBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{C824F035-24E6-439B-A2E9-17628AE6E8A5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{C824F035-24E6-439B-A2E9-17628AE6E8A5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>nama_part</t>
   </si>
@@ -42,13 +42,16 @@
     <t>stok_minimum</t>
   </si>
   <si>
-    <t>harga_beli_default</t>
-  </si>
-  <si>
-    <t>harga_jual_default</t>
-  </si>
-  <si>
     <t>kode_part</t>
+  </si>
+  <si>
+    <t>dpp</t>
+  </si>
+  <si>
+    <t>ppn</t>
+  </si>
+  <si>
+    <t>harga_satuan</t>
   </si>
 </sst>
 </file>
@@ -406,10 +409,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2329742C-3F28-4E01-B4D0-6B90FA3F6E0D}">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -420,13 +423,13 @@
     <col min="4" max="4" width="8.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -444,13 +447,16 @@
         <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:9">
       <c r="A7" s="1"/>
     </row>
   </sheetData>
